--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema3a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>Plxna4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H2">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I2">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J2">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.76348862405485</v>
+        <v>5.038212</v>
       </c>
       <c r="N2">
-        <v>4.76348862405485</v>
+        <v>10.076424</v>
       </c>
       <c r="O2">
-        <v>0.5612353936371299</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P2">
-        <v>0.5612353936371299</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q2">
-        <v>5.838789815645939</v>
+        <v>6.175568206152</v>
       </c>
       <c r="R2">
-        <v>5.838789815645939</v>
+        <v>24.702272824608</v>
       </c>
       <c r="S2">
-        <v>0.1072093493860885</v>
+        <v>0.0566022545088689</v>
       </c>
       <c r="T2">
-        <v>0.1072093493860885</v>
+        <v>0.04588291688632411</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H3">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I3">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J3">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.315873185162253</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N3">
-        <v>0.315873185162253</v>
+        <v>1.096807</v>
       </c>
       <c r="O3">
-        <v>0.03721625585893491</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P3">
-        <v>0.03721625585893491</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q3">
-        <v>0.3871778190562905</v>
+        <v>0.448135597674</v>
       </c>
       <c r="R3">
-        <v>0.3871778190562905</v>
+        <v>2.688813586044</v>
       </c>
       <c r="S3">
-        <v>0.00710919272458132</v>
+        <v>0.004107392924388584</v>
       </c>
       <c r="T3">
-        <v>0.00710919272458132</v>
+        <v>0.00499430198861605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +658,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H4">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I4">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J4">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.5818208198131</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N4">
-        <v>2.5818208198131</v>
+        <v>0.366382</v>
       </c>
       <c r="O4">
-        <v>0.3041907598542546</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P4">
-        <v>0.3041907598542546</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q4">
-        <v>3.164636319780953</v>
+        <v>0.149697090324</v>
       </c>
       <c r="R4">
-        <v>3.164636319780953</v>
+        <v>0.8981825419439999</v>
       </c>
       <c r="S4">
-        <v>0.05810769210738709</v>
+        <v>0.001372050720339438</v>
       </c>
       <c r="T4">
-        <v>0.05810769210738709</v>
+        <v>0.001668317535530978</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +720,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22573816722496</v>
+        <v>1.225746</v>
       </c>
       <c r="H5">
-        <v>1.22573816722496</v>
+        <v>2.451492</v>
       </c>
       <c r="I5">
-        <v>0.1910238566589857</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J5">
-        <v>0.1910238566589857</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.826323109310154</v>
+        <v>0.07346266666666666</v>
       </c>
       <c r="N5">
-        <v>0.826323109310154</v>
+        <v>0.220388</v>
       </c>
       <c r="O5">
-        <v>0.0973575906496804</v>
+        <v>0.00789279214004137</v>
       </c>
       <c r="P5">
-        <v>0.0973575906496804</v>
+        <v>0.01012433488823532</v>
       </c>
       <c r="Q5">
-        <v>1.012855773541459</v>
+        <v>0.090046569816</v>
       </c>
       <c r="R5">
-        <v>1.012855773541459</v>
+        <v>0.540279418896</v>
       </c>
       <c r="S5">
-        <v>0.01859762244092876</v>
+        <v>0.0008253230621432495</v>
       </c>
       <c r="T5">
-        <v>0.01859762244092876</v>
+        <v>0.001003535012693312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +782,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.520181605228748</v>
+        <v>1.225746</v>
       </c>
       <c r="H6">
-        <v>0.520181605228748</v>
+        <v>2.451492</v>
       </c>
       <c r="I6">
-        <v>0.08106714716962925</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J6">
-        <v>0.08106714716962925</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.76348862405485</v>
+        <v>2.591826</v>
       </c>
       <c r="N6">
-        <v>4.76348862405485</v>
+        <v>7.775478</v>
       </c>
       <c r="O6">
-        <v>0.5612353936371299</v>
+        <v>0.2784644882818692</v>
       </c>
       <c r="P6">
-        <v>0.5612353936371299</v>
+        <v>0.357195233806315</v>
       </c>
       <c r="Q6">
-        <v>2.477879158949732</v>
+        <v>3.176920352196</v>
       </c>
       <c r="R6">
-        <v>2.477879158949732</v>
+        <v>19.061522113176</v>
       </c>
       <c r="S6">
-        <v>0.04549775225278602</v>
+        <v>0.02911810675983933</v>
       </c>
       <c r="T6">
-        <v>0.04549775225278602</v>
+        <v>0.03540557749708047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,55 +844,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.520181605228748</v>
+        <v>1.225746</v>
       </c>
       <c r="H7">
-        <v>0.520181605228748</v>
+        <v>2.451492</v>
       </c>
       <c r="I7">
-        <v>0.08106714716962925</v>
+        <v>0.1045666790027646</v>
       </c>
       <c r="J7">
-        <v>0.08106714716962925</v>
+        <v>0.09912108042370671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.315873185162253</v>
+        <v>1.1163335</v>
       </c>
       <c r="N7">
-        <v>0.315873185162253</v>
+        <v>2.232667</v>
       </c>
       <c r="O7">
-        <v>0.03721625585893491</v>
+        <v>0.1199383125369558</v>
       </c>
       <c r="P7">
-        <v>0.03721625585893491</v>
+        <v>0.102565785804634</v>
       </c>
       <c r="Q7">
-        <v>0.1643114205064183</v>
+        <v>1.368341322291</v>
       </c>
       <c r="R7">
-        <v>0.1643114205064183</v>
+        <v>5.473365289164001</v>
       </c>
       <c r="S7">
-        <v>0.003017015690818853</v>
+        <v>0.01254155102718512</v>
       </c>
       <c r="T7">
-        <v>0.003017015690818853</v>
+        <v>0.0101664315034618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +906,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H8">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J8">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5818208198131</v>
+        <v>5.038212</v>
       </c>
       <c r="N8">
-        <v>2.5818208198131</v>
+        <v>10.076424</v>
       </c>
       <c r="O8">
-        <v>0.3041907598542546</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P8">
-        <v>0.3041907598542546</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q8">
-        <v>1.343015698463381</v>
+        <v>3.10838367254</v>
       </c>
       <c r="R8">
-        <v>1.343015698463381</v>
+        <v>18.65030203524</v>
       </c>
       <c r="S8">
-        <v>0.02465987709674621</v>
+        <v>0.02848993288893669</v>
       </c>
       <c r="T8">
-        <v>0.02465987709674621</v>
+        <v>0.03464176208657584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +968,60 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.520181605228748</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H9">
-        <v>0.520181605228748</v>
+        <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.08106714716962925</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J9">
-        <v>0.08106714716962925</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.826323109310154</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N9">
-        <v>0.826323109310154</v>
+        <v>1.096807</v>
       </c>
       <c r="O9">
-        <v>0.0973575906496804</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P9">
-        <v>0.0973575906496804</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q9">
-        <v>0.4298380814385661</v>
+        <v>0.2255626249105556</v>
       </c>
       <c r="R9">
-        <v>0.4298380814385661</v>
+        <v>2.030063624195</v>
       </c>
       <c r="S9">
-        <v>0.007892502129278162</v>
+        <v>0.002067397310931999</v>
       </c>
       <c r="T9">
-        <v>0.007892502129278162</v>
+        <v>0.003770715399519809</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1024,60 +1030,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.62421840465853</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H10">
-        <v>0.62421840465853</v>
+        <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.09728065115680413</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J10">
-        <v>0.09728065115680413</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>4.76348862405485</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N10">
-        <v>4.76348862405485</v>
+        <v>0.366382</v>
       </c>
       <c r="O10">
-        <v>0.5612353936371299</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P10">
-        <v>0.5612353936371299</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q10">
-        <v>2.973457269516575</v>
+        <v>0.07534788311888888</v>
       </c>
       <c r="R10">
-        <v>2.973457269516575</v>
+        <v>0.67813094807</v>
       </c>
       <c r="S10">
-        <v>0.05459734454526529</v>
+        <v>0.0006906020490149021</v>
       </c>
       <c r="T10">
-        <v>0.05459734454526529</v>
+        <v>0.001259585551064925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.62421840465853</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H11">
-        <v>0.62421840465853</v>
+        <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.09728065115680413</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J11">
-        <v>0.09728065115680413</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.315873185162253</v>
+        <v>0.07346266666666666</v>
       </c>
       <c r="N11">
-        <v>0.315873185162253</v>
+        <v>0.220388</v>
       </c>
       <c r="O11">
-        <v>0.03721625585893491</v>
+        <v>0.00789279214004137</v>
       </c>
       <c r="P11">
-        <v>0.03721625585893491</v>
+        <v>0.01012433488823532</v>
       </c>
       <c r="Q11">
-        <v>0.19717385571639</v>
+        <v>0.04532364926444444</v>
       </c>
       <c r="R11">
-        <v>0.19717385571639</v>
+        <v>0.40791284338</v>
       </c>
       <c r="S11">
-        <v>0.003620421603575414</v>
+        <v>0.0004154145246717804</v>
       </c>
       <c r="T11">
-        <v>0.003620421603575414</v>
+        <v>0.0007576724304908445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1157,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.62421840465853</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H12">
-        <v>0.62421840465853</v>
+        <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.09728065115680413</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J12">
-        <v>0.09728065115680413</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5818208198131</v>
+        <v>2.591826</v>
       </c>
       <c r="N12">
-        <v>2.5818208198131</v>
+        <v>7.775478</v>
       </c>
       <c r="O12">
-        <v>0.3041907598542546</v>
+        <v>0.2784644882818692</v>
       </c>
       <c r="P12">
-        <v>0.3041907598542546</v>
+        <v>0.357195233806315</v>
       </c>
       <c r="Q12">
-        <v>1.611620073257911</v>
+        <v>1.59905728867</v>
       </c>
       <c r="R12">
-        <v>1.611620073257911</v>
+        <v>14.39151559803</v>
       </c>
       <c r="S12">
-        <v>0.02959187519450493</v>
+        <v>0.01465618135953811</v>
       </c>
       <c r="T12">
-        <v>0.02959187519450493</v>
+        <v>0.02673133434891233</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,57 +1219,57 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.62421840465853</v>
+        <v>0.6169616666666666</v>
       </c>
       <c r="H13">
-        <v>0.62421840465853</v>
+        <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.09728065115680413</v>
+        <v>0.05263213794321498</v>
       </c>
       <c r="J13">
-        <v>0.09728065115680413</v>
+        <v>0.07483676101738548</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.826323109310154</v>
+        <v>1.1163335</v>
       </c>
       <c r="N13">
-        <v>0.826323109310154</v>
+        <v>2.232667</v>
       </c>
       <c r="O13">
-        <v>0.0973575906496804</v>
+        <v>0.1199383125369558</v>
       </c>
       <c r="P13">
-        <v>0.0973575906496804</v>
+        <v>0.102565785804634</v>
       </c>
       <c r="Q13">
-        <v>0.5158060930260604</v>
+        <v>0.6887349767158334</v>
       </c>
       <c r="R13">
-        <v>0.5158060930260604</v>
+        <v>4.132409860295</v>
       </c>
       <c r="S13">
-        <v>0.009471009813458496</v>
+        <v>0.006312609810121491</v>
       </c>
       <c r="T13">
-        <v>0.009471009813458496</v>
+        <v>0.007675691200821744</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.04653766989015</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H14">
-        <v>4.04653766989015</v>
+        <v>2.013123</v>
       </c>
       <c r="I14">
-        <v>0.630628345014581</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J14">
-        <v>0.630628345014581</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.76348862405485</v>
+        <v>5.038212</v>
       </c>
       <c r="N14">
-        <v>4.76348862405485</v>
+        <v>10.076424</v>
       </c>
       <c r="O14">
-        <v>0.5612353936371299</v>
+        <v>0.5413029757536089</v>
       </c>
       <c r="P14">
-        <v>0.5612353936371299</v>
+        <v>0.4628976670773892</v>
       </c>
       <c r="Q14">
-        <v>19.27563615733115</v>
+        <v>3.380846818692</v>
       </c>
       <c r="R14">
-        <v>19.27563615733115</v>
+        <v>20.285080912152</v>
       </c>
       <c r="S14">
-        <v>0.3539309474529901</v>
+        <v>0.03098719756612373</v>
       </c>
       <c r="T14">
-        <v>0.3539309474529901</v>
+        <v>0.03767826094922906</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.04653766989015</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H15">
-        <v>4.04653766989015</v>
+        <v>2.013123</v>
       </c>
       <c r="I15">
-        <v>0.630628345014581</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J15">
-        <v>0.630628345014581</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.315873185162253</v>
+        <v>0.3656023333333334</v>
       </c>
       <c r="N15">
-        <v>0.315873185162253</v>
+        <v>1.096807</v>
       </c>
       <c r="O15">
-        <v>0.03721625585893491</v>
+        <v>0.03928013171652883</v>
       </c>
       <c r="P15">
-        <v>0.03721625585893491</v>
+        <v>0.05038587117157337</v>
       </c>
       <c r="Q15">
-        <v>1.278192742667243</v>
+        <v>0.2453341553623334</v>
       </c>
       <c r="R15">
-        <v>1.278192742667243</v>
+        <v>2.208007398261</v>
       </c>
       <c r="S15">
-        <v>0.02346962583995932</v>
+        <v>0.00224861354258928</v>
       </c>
       <c r="T15">
-        <v>0.02346962583995932</v>
+        <v>0.004101234759170623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -1396,117 +1402,613 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.04653766989015</v>
+        <v>0.6710410000000001</v>
       </c>
       <c r="H16">
-        <v>4.04653766989015</v>
+        <v>2.013123</v>
       </c>
       <c r="I16">
-        <v>0.630628345014581</v>
+        <v>0.0572455703259029</v>
       </c>
       <c r="J16">
-        <v>0.630628345014581</v>
+        <v>0.08139652374383181</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.5818208198131</v>
+        <v>0.1221273333333333</v>
       </c>
       <c r="N16">
-        <v>2.5818208198131</v>
+        <v>0.366382</v>
       </c>
       <c r="O16">
-        <v>0.3041907598542546</v>
+        <v>0.01312129957099587</v>
       </c>
       <c r="P16">
-        <v>0.3041907598542546</v>
+        <v>0.01683110725185324</v>
       </c>
       <c r="Q16">
-        <v>10.44743520428038</v>
+        <v>0.08195244788733334</v>
       </c>
       <c r="R16">
-        <v>10.44743520428038</v>
+        <v>0.7375720309860001</v>
       </c>
       <c r="S16">
-        <v>0.1918313154556164</v>
+        <v>0.0007511362773586836</v>
       </c>
       <c r="T16">
-        <v>0.1918313154556164</v>
+        <v>0.001369993621060452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6710410000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.013123</v>
+      </c>
+      <c r="I17">
+        <v>0.0572455703259029</v>
+      </c>
+      <c r="J17">
+        <v>0.08139652374383181</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07346266666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.220388</v>
+      </c>
+      <c r="O17">
+        <v>0.00789279214004137</v>
+      </c>
+      <c r="P17">
+        <v>0.01012433488823532</v>
+      </c>
+      <c r="Q17">
+        <v>0.04929646130266667</v>
+      </c>
+      <c r="R17">
+        <v>0.443668151724</v>
+      </c>
+      <c r="S17">
+        <v>0.000451827387520472</v>
+      </c>
+      <c r="T17">
+        <v>0.0008240856651207507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6710410000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.013123</v>
+      </c>
+      <c r="I18">
+        <v>0.0572455703259029</v>
+      </c>
+      <c r="J18">
+        <v>0.08139652374383181</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.591826</v>
+      </c>
+      <c r="N18">
+        <v>7.775478</v>
+      </c>
+      <c r="O18">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P18">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q18">
+        <v>1.739221510866</v>
+      </c>
+      <c r="R18">
+        <v>15.652993597794</v>
+      </c>
+      <c r="S18">
+        <v>0.01594085844720631</v>
+      </c>
+      <c r="T18">
+        <v>0.02907445032969928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6710410000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.013123</v>
+      </c>
+      <c r="I19">
+        <v>0.0572455703259029</v>
+      </c>
+      <c r="J19">
+        <v>0.08139652374383181</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.1163335</v>
+      </c>
+      <c r="N19">
+        <v>2.232667</v>
+      </c>
+      <c r="O19">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P19">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q19">
+        <v>0.7491055481735002</v>
+      </c>
+      <c r="R19">
+        <v>4.494633289041001</v>
+      </c>
+      <c r="S19">
+        <v>0.006865937105104428</v>
+      </c>
+      <c r="T19">
+        <v>0.00834849841955166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>4.04653766989015</v>
-      </c>
-      <c r="H17">
-        <v>4.04653766989015</v>
-      </c>
-      <c r="I17">
-        <v>0.630628345014581</v>
-      </c>
-      <c r="J17">
-        <v>0.630628345014581</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.826323109310154</v>
-      </c>
-      <c r="N17">
-        <v>0.826323109310154</v>
-      </c>
-      <c r="O17">
-        <v>0.0973575906496804</v>
-      </c>
-      <c r="P17">
-        <v>0.0973575906496804</v>
-      </c>
-      <c r="Q17">
-        <v>3.343747589324294</v>
-      </c>
-      <c r="R17">
-        <v>3.343747589324294</v>
-      </c>
-      <c r="S17">
-        <v>0.061396456266015</v>
-      </c>
-      <c r="T17">
-        <v>0.061396456266015</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H20">
+        <v>18.416797</v>
+      </c>
+      <c r="I20">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J20">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.038212</v>
+      </c>
+      <c r="N20">
+        <v>10.076424</v>
+      </c>
+      <c r="O20">
+        <v>0.5413029757536089</v>
+      </c>
+      <c r="P20">
+        <v>0.4628976670773892</v>
+      </c>
+      <c r="Q20">
+        <v>46.39386382348199</v>
+      </c>
+      <c r="R20">
+        <v>185.575455293928</v>
+      </c>
+      <c r="S20">
+        <v>0.4252235907896795</v>
+      </c>
+      <c r="T20">
+        <v>0.3446947271552601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H21">
+        <v>18.416797</v>
+      </c>
+      <c r="I21">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J21">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3656023333333334</v>
+      </c>
+      <c r="N21">
+        <v>1.096807</v>
+      </c>
+      <c r="O21">
+        <v>0.03928013171652883</v>
+      </c>
+      <c r="P21">
+        <v>0.05038587117157337</v>
+      </c>
+      <c r="Q21">
+        <v>3.366611977863167</v>
+      </c>
+      <c r="R21">
+        <v>20.199671867179</v>
+      </c>
+      <c r="S21">
+        <v>0.03085672793861897</v>
+      </c>
+      <c r="T21">
+        <v>0.03751961902426689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H22">
+        <v>18.416797</v>
+      </c>
+      <c r="I22">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J22">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1221273333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.366382</v>
+      </c>
+      <c r="O22">
+        <v>0.01312129957099587</v>
+      </c>
+      <c r="P22">
+        <v>0.01683110725185324</v>
+      </c>
+      <c r="Q22">
+        <v>1.124597153075666</v>
+      </c>
+      <c r="R22">
+        <v>6.747582918453999</v>
+      </c>
+      <c r="S22">
+        <v>0.01030751052428284</v>
+      </c>
+      <c r="T22">
+        <v>0.01253321054419688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H23">
+        <v>18.416797</v>
+      </c>
+      <c r="I23">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J23">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.07346266666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.220388</v>
+      </c>
+      <c r="O23">
+        <v>0.00789279214004137</v>
+      </c>
+      <c r="P23">
+        <v>0.01012433488823532</v>
+      </c>
+      <c r="Q23">
+        <v>0.6764735095393333</v>
+      </c>
+      <c r="R23">
+        <v>4.058841057236</v>
+      </c>
+      <c r="S23">
+        <v>0.006200227165705868</v>
+      </c>
+      <c r="T23">
+        <v>0.007539041779930407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H24">
+        <v>18.416797</v>
+      </c>
+      <c r="I24">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J24">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.591826</v>
+      </c>
+      <c r="N24">
+        <v>7.775478</v>
+      </c>
+      <c r="O24">
+        <v>0.2784644882818692</v>
+      </c>
+      <c r="P24">
+        <v>0.357195233806315</v>
+      </c>
+      <c r="Q24">
+        <v>23.866566650661</v>
+      </c>
+      <c r="R24">
+        <v>143.199399903966</v>
+      </c>
+      <c r="S24">
+        <v>0.2187493417152855</v>
+      </c>
+      <c r="T24">
+        <v>0.2659838716306229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.208398499999999</v>
+      </c>
+      <c r="H25">
+        <v>18.416797</v>
+      </c>
+      <c r="I25">
+        <v>0.7855556127281175</v>
+      </c>
+      <c r="J25">
+        <v>0.744645634815076</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.1163335</v>
+      </c>
+      <c r="N25">
+        <v>2.232667</v>
+      </c>
+      <c r="O25">
+        <v>0.1199383125369558</v>
+      </c>
+      <c r="P25">
+        <v>0.102565785804634</v>
+      </c>
+      <c r="Q25">
+        <v>10.27964372689975</v>
+      </c>
+      <c r="R25">
+        <v>41.118574907599</v>
+      </c>
+      <c r="S25">
+        <v>0.0942182145945448</v>
+      </c>
+      <c r="T25">
+        <v>0.07637516468079879</v>
       </c>
     </row>
   </sheetData>
